--- a/xlsx/干部_intext.xlsx
+++ b/xlsx/干部_intext.xlsx
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>人民團體</t>
+    <t>人民团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E4%B8%9A%E5%8D%95%E4%BD%8D</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>和製漢語</t>
+    <t>和制汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E8%80%85</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>國軍</t>
+    <t>国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%8E%E9%94%A1%E5%B1%B1</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%87%A8%E6%99%82%E5%A4%A7%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國臨時大總統</t>
+    <t>中华民国临时大总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E4%B8%AD%E5%B1%B1</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%8B%E4%B8%AD%E6%AD%A3</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%A7%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國大總統</t>
+    <t>中华民国大总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%81%E4%B8%96%E5%87%AF</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%93%A1</t>
   </si>
   <si>
-    <t>官員</t>
+    <t>官员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91%E9%95%B7</t>
   </si>
   <si>
-    <t>村長</t>
+    <t>村长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E4%BC%9A</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E7%A7%91</t>
   </si>
   <si>
-    <t>專科</t>
+    <t>专科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B8%AD</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>行政人員</t>
+    <t>行政人员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -695,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -779,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -821,25 +821,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -917,13 +917,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -989,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
